--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3288132.2887143</v>
+        <v>3281588.206167293</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261949</v>
+        <v>2345916.138261947</v>
       </c>
     </row>
     <row r="8">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>227.7664834517761</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.2420339516669</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>263.2420339516669</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>262.0103915579872</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S3" t="n">
-        <v>93.60349624133414</v>
+        <v>148.8017515848429</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>142.3870695882591</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>260.3122444724545</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>387.3948401441551</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>387.3948401441551</v>
+        <v>387.394840144155</v>
       </c>
       <c r="H5" t="n">
-        <v>287.101414297041</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264479</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>116.8439548922222</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3035935196382</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663286</v>
+        <v>79.71162794663287</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078363</v>
+        <v>82.69274760078365</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537394</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>45.28087363430321</v>
+        <v>67.1009087220687</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.7551494384634</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>76.42847837627546</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>134.382984326849</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>37.06286729089732</v>
+        <v>84.11892151122098</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>232.5467951020189</v>
+        <v>152.4197201974565</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113172</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274071</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>198.6529319504859</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>118.9955446623096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.68706854817751</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>82.35845141792591</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>215.7053919670787</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.7418731970295</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896907</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>23.92756319405549</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>158.0300713929046</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>76.6161967382711</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>135.0001192339617</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.562624396424889</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>67.61524188852272</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.496242627249307</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065128</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.9955446623092</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896893</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>104.7725661050848</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>32.91466611915821</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.1660470154213</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="C2" t="n">
-        <v>521.1660470154213</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="D2" t="n">
-        <v>521.1660470154213</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="E2" t="n">
-        <v>521.1660470154213</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="F2" t="n">
-        <v>291.0988920136273</v>
+        <v>40.56170762187421</v>
       </c>
       <c r="G2" t="n">
         <v>25.19784761800413</v>
@@ -4355,25 +4355,25 @@
         <v>1052.968135806668</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806668</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806668</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806668</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="V2" t="n">
-        <v>787.0670914110444</v>
+        <v>578.0652139363849</v>
       </c>
       <c r="W2" t="n">
-        <v>521.1660470154213</v>
+        <v>312.1641695407617</v>
       </c>
       <c r="X2" t="n">
-        <v>521.1660470154213</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.1660470154213</v>
+        <v>47.50720837107768</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.8313756947039</v>
+        <v>394.8528667175163</v>
       </c>
       <c r="C3" t="n">
-        <v>326.8313756947039</v>
+        <v>394.8528667175163</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8313756947039</v>
+        <v>394.8528667175163</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>394.8528667175163</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613335</v>
+        <v>248.3183087444013</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613335</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613335</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683216</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683216</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5537082516947</v>
+        <v>261.6628906109959</v>
       </c>
       <c r="M3" t="n">
-        <v>265.5537082516947</v>
+        <v>522.2725042231461</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565288</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249021</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271197</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806668</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="S3" t="n">
-        <v>958.4191497043098</v>
+        <v>804.5982230673944</v>
       </c>
       <c r="T3" t="n">
-        <v>958.4191497043098</v>
+        <v>602.6131654824703</v>
       </c>
       <c r="U3" t="n">
-        <v>730.1988209465146</v>
+        <v>602.6131654824703</v>
       </c>
       <c r="V3" t="n">
-        <v>495.0467127147719</v>
+        <v>602.6131654824703</v>
       </c>
       <c r="W3" t="n">
-        <v>495.0467127147719</v>
+        <v>602.6131654824703</v>
       </c>
       <c r="X3" t="n">
-        <v>495.0467127147719</v>
+        <v>602.6131654824703</v>
       </c>
       <c r="Y3" t="n">
-        <v>495.0467127147719</v>
+        <v>394.8528667175163</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K4" t="n">
         <v>21.05936271613335</v>
@@ -4519,19 +4519,19 @@
         <v>182.5089274706538</v>
       </c>
       <c r="U4" t="n">
-        <v>38.68360465423044</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V4" t="n">
-        <v>38.68360465423044</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.73734692042</v>
+        <v>692.1866683815535</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.73734692042</v>
+        <v>692.1866683815535</v>
       </c>
       <c r="D5" t="n">
-        <v>1295.73734692042</v>
+        <v>429.2450072982662</v>
       </c>
       <c r="E5" t="n">
-        <v>1295.73734692042</v>
+        <v>429.2450072982662</v>
       </c>
       <c r="F5" t="n">
-        <v>904.42942758289</v>
+        <v>422.2995065490627</v>
       </c>
       <c r="G5" t="n">
-        <v>513.1215082453596</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="H5" t="n">
-        <v>223.1200796624899</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153241</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931841</v>
+        <v>63.3372984893183</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817371</v>
+        <v>232.559939181737</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923837</v>
+        <v>494.7722161923832</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365703</v>
+        <v>803.1404427365696</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029484</v>
+        <v>1101.866392029483</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245515</v>
+        <v>1338.757197245514</v>
       </c>
       <c r="P5" t="n">
         <v>1503.263635927384</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576621</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="R5" t="n">
-        <v>1549.579360576621</v>
+        <v>1431.555163715789</v>
       </c>
       <c r="S5" t="n">
-        <v>1549.579360576621</v>
+        <v>1431.555163715789</v>
       </c>
       <c r="T5" t="n">
-        <v>1549.579360576621</v>
+        <v>1431.555163715789</v>
       </c>
       <c r="U5" t="n">
-        <v>1295.73734692042</v>
+        <v>1431.555163715789</v>
       </c>
       <c r="V5" t="n">
-        <v>1295.73734692042</v>
+        <v>1431.555163715789</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.73734692042</v>
+        <v>1078.786508445675</v>
       </c>
       <c r="X5" t="n">
-        <v>1295.73734692042</v>
+        <v>1078.786508445675</v>
       </c>
       <c r="Y5" t="n">
-        <v>1295.73734692042</v>
+        <v>1078.786508445675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>843.2049215441243</v>
+        <v>740.6678350381709</v>
       </c>
       <c r="C6" t="n">
-        <v>668.7518922629973</v>
+        <v>566.2148057570439</v>
       </c>
       <c r="D6" t="n">
-        <v>519.8174826017461</v>
+        <v>417.2803960957927</v>
       </c>
       <c r="E6" t="n">
-        <v>360.5800275962906</v>
+        <v>258.0429410903372</v>
       </c>
       <c r="F6" t="n">
-        <v>360.5800275962906</v>
+        <v>111.5083831172222</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1333405200616</v>
+        <v>111.5083831172222</v>
       </c>
       <c r="H6" t="n">
         <v>111.5083831172222</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153241</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="J6" t="n">
-        <v>56.56309157527275</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="K6" t="n">
-        <v>56.56309157527275</v>
+        <v>126.7612375188589</v>
       </c>
       <c r="L6" t="n">
-        <v>346.9926440847851</v>
+        <v>126.7612375188589</v>
       </c>
       <c r="M6" t="n">
-        <v>510.2821292615727</v>
+        <v>510.2821292615723</v>
       </c>
       <c r="N6" t="n">
-        <v>893.8030210042863</v>
+        <v>893.8030210042857</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.814860114876</v>
+        <v>1208.814860114875</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.636565258031</v>
+        <v>1444.63656525803</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576621</v>
+        <v>1549.57936057662</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697041</v>
+        <v>1466.05133269704</v>
       </c>
       <c r="S6" t="n">
-        <v>1466.051332697041</v>
+        <v>1466.05133269704</v>
       </c>
       <c r="T6" t="n">
-        <v>1265.010014965991</v>
+        <v>1466.05133269704</v>
       </c>
       <c r="U6" t="n">
-        <v>1219.271758769725</v>
+        <v>1398.272637018183</v>
       </c>
       <c r="V6" t="n">
-        <v>1219.271758769725</v>
+        <v>1163.12052878644</v>
       </c>
       <c r="W6" t="n">
-        <v>1219.271758769725</v>
+        <v>908.8831720582389</v>
       </c>
       <c r="X6" t="n">
-        <v>1011.420258564192</v>
+        <v>908.8831720582389</v>
       </c>
       <c r="Y6" t="n">
-        <v>1011.420258564192</v>
+        <v>908.8831720582389</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.1920704198915</v>
+        <v>200.4412331089702</v>
       </c>
       <c r="C7" t="n">
-        <v>108.1920704198915</v>
+        <v>200.4412331089702</v>
       </c>
       <c r="D7" t="n">
-        <v>108.1920704198915</v>
+        <v>200.4412331089702</v>
       </c>
       <c r="E7" t="n">
-        <v>108.1920704198915</v>
+        <v>200.4412331089702</v>
       </c>
       <c r="F7" t="n">
-        <v>108.1920704198915</v>
+        <v>200.4412331089702</v>
       </c>
       <c r="G7" t="n">
-        <v>108.1920704198915</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="H7" t="n">
-        <v>108.1920704198915</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="I7" t="n">
-        <v>108.1920704198915</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153241</v>
+        <v>30.9915872115324</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177048</v>
+        <v>36.06994770177044</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391513</v>
+        <v>98.09493531391504</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004515</v>
+        <v>173.8807113004514</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454194</v>
+        <v>253.2990873454192</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451042</v>
+        <v>310.6385163451041</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179088</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179088</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="R7" t="n">
-        <v>336.1816213179088</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="S7" t="n">
-        <v>336.1816213179088</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="T7" t="n">
-        <v>336.1816213179088</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="U7" t="n">
-        <v>336.1816213179088</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="V7" t="n">
-        <v>336.1816213179088</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="W7" t="n">
-        <v>336.1816213179088</v>
+        <v>336.1816213179086</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1920704198915</v>
+        <v>200.4412331089702</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.1920704198915</v>
+        <v>200.4412331089702</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2033.346402544967</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1664.383885604555</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="D8" t="n">
-        <v>1306.118186997805</v>
+        <v>1507.115530902032</v>
       </c>
       <c r="E8" t="n">
-        <v>920.3299343995602</v>
+        <v>1121.327278303787</v>
       </c>
       <c r="F8" t="n">
-        <v>509.3440296099527</v>
+        <v>710.3413735141798</v>
       </c>
       <c r="G8" t="n">
-        <v>91.38022150813953</v>
+        <v>292.3775654123667</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>2033.346402544967</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4887,25 +4887,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>396.6060931634762</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,7 +5039,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514087</v>
@@ -5066,7 +5066,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635867</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300437</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383447</v>
+        <v>809.2080944642998</v>
       </c>
       <c r="W13" t="n">
-        <v>385.5899330013841</v>
+        <v>809.2080944642998</v>
       </c>
       <c r="X13" t="n">
-        <v>385.5899330013841</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404652</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,16 +5279,16 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5303,7 +5303,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>454.2145238948141</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>285.2783409669072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>285.2783409669072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>285.2783409669072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>285.2783409669072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>117.1030192867278</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>454.2145238948141</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5540,19 +5540,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5598,13 +5598,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>550.2226492899335</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698952</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1281.032036247722</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>991.90339746128</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>737.2189092553931</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W19" t="n">
-        <v>447.8017392184325</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184325</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184325</v>
+        <v>330.8254548799445</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5747,7 +5747,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5774,22 +5774,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1270.930184092425</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1270.930184092425</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1270.930184092425</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1270.930184092425</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1270.930184092425</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>1042.940633194408</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4082.388754106443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3913.452571178536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3913.452571178536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929846</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4371.805924143404</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>4371.805924143404</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>4082.388754106443</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>4082.388754106443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4082.388754106443</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,67 +6203,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6309,16 +6309,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.6859735286132</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="C28" t="n">
-        <v>665.6859735286132</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="D28" t="n">
-        <v>665.6859735286132</v>
+        <v>454.3171022339432</v>
       </c>
       <c r="E28" t="n">
-        <v>665.6859735286132</v>
+        <v>454.3171022339432</v>
       </c>
       <c r="F28" t="n">
-        <v>518.7960260307028</v>
+        <v>454.3171022339432</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>286.1417805537637</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X28" t="n">
-        <v>665.6859735286132</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y28" t="n">
-        <v>665.6859735286132</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6452,43 +6452,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6506,7 +6506,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372323</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>3540.192194764784</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>3870.054822428817</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>4539.518583731477</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6646,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>594.9539715530981</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6707,10 +6707,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>410.8745301331628</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.771599890051</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6835,22 +6835,22 @@
         <v>102.8359039819272</v>
       </c>
       <c r="C34" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>434.3285960683721</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1491.344308308156</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1491.344308308156</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1267.558893097661</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>978.4302543112195</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>723.7457661053327</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>434.3285960683721</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>434.3285960683721</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y37" t="n">
-        <v>434.3285960683721</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,13 +7163,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4741.167820987512</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>4452.03918220107</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>4197.354693995183</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W40" t="n">
-        <v>3907.937523958222</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X40" t="n">
-        <v>3679.947973060205</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7597,22 +7597,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155868</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7643,7 +7643,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7670,28 +7670,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.1696912903951</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C46" t="n">
-        <v>359.1696912903951</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F46" t="n">
         <v>359.1696912903951</v>
@@ -7801,7 +7801,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7831,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1058.224877055613</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1058.224877055613</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>768.8077070186521</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X46" t="n">
-        <v>540.8181561206347</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y46" t="n">
-        <v>540.8181561206347</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K3" t="n">
         <v>129.8481964236087</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>129.591740357718</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N3" t="n">
-        <v>380.4370814350383</v>
+        <v>197.5393732613982</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>100.2612329527924</v>
       </c>
       <c r="K6" t="n">
-        <v>92.4181490916371</v>
+        <v>189.1551696040882</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>77.47716095041648</v>
       </c>
       <c r="M6" t="n">
-        <v>235.7986742902879</v>
+        <v>458.2546405184959</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5759018009049</v>
+        <v>445.5759018009048</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231143</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9009,19 +9009,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10200,13 +10200,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>29.47535963978171</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>53.48471137334215</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.58910868978516</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2267598193586</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>66.25702160028645</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>5.842169091310524</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.17893678657371</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>122.5063994525137</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>8.463497070472982</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.29763162926503</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,7 +24886,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>151.5228791026293</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>161.6841967022029</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25093,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>104.8566210678471</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>112.2167382934146</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.4681097765435</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518765</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.1420986615188</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25837,7 +25837,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,25 +26071,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>181.4647862934925</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6699872329366</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712816.6064027171</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409907</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="J2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409908</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="P2" t="n">
         <v>684300.8545409903</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749498</v>
+        <v>110394.4548749499</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300987</v>
+        <v>138241.1818300985</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133501</v>
+        <v>300621.8974133503</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124991</v>
+        <v>68875.69873124997</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414831</v>
+        <v>31952.95942414821</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179888</v>
+        <v>72609.89266179896</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.153803310046593e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303606.8987592795</v>
+        <v>304469.3167485494</v>
       </c>
       <c r="C4" t="n">
-        <v>264154.2681793271</v>
+        <v>265031.2936389867</v>
       </c>
       <c r="D4" t="n">
-        <v>173579.2517190113</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>28569.94024165062</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="N4" t="n">
-        <v>28569.94024165061</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>28569.94024165065</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>28569.94024165071</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>50134.40740683336</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267173</v>
+        <v>60032.17562267171</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254275.7875901851</v>
+        <v>253413.3696009153</v>
       </c>
       <c r="C6" t="n">
-        <v>255983.9229991504</v>
+        <v>255106.8975394913</v>
       </c>
       <c r="D6" t="n">
-        <v>161351.3214354772</v>
+        <v>160439.7958326619</v>
       </c>
       <c r="E6" t="n">
-        <v>38583.55187372657</v>
+        <v>37849.94656307509</v>
       </c>
       <c r="F6" t="n">
-        <v>563743.5883506238</v>
+        <v>563009.9830399714</v>
       </c>
       <c r="G6" t="n">
-        <v>563743.5883506236</v>
+        <v>563009.9830399717</v>
       </c>
       <c r="H6" t="n">
-        <v>563743.5883506235</v>
+        <v>563009.9830399718</v>
       </c>
       <c r="I6" t="n">
-        <v>563743.5883506234</v>
+        <v>563009.9830399712</v>
       </c>
       <c r="J6" t="n">
-        <v>494867.8896193731</v>
+        <v>494134.2843087213</v>
       </c>
       <c r="K6" t="n">
-        <v>531790.628926475</v>
+        <v>531057.0236158229</v>
       </c>
       <c r="L6" t="n">
-        <v>491133.6956888245</v>
+        <v>490400.0903781725</v>
       </c>
       <c r="M6" t="n">
-        <v>428942.5731167857</v>
+        <v>428208.967806134</v>
       </c>
       <c r="N6" t="n">
-        <v>563743.5883506233</v>
+        <v>563009.9830399718</v>
       </c>
       <c r="O6" t="n">
-        <v>563743.5883506229</v>
+        <v>563009.9830399712</v>
       </c>
       <c r="P6" t="n">
-        <v>563743.588350623</v>
+        <v>563009.9830399713</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792248</v>
+        <v>130.7784101792247</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441551</v>
+        <v>387.394840144155</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924352</v>
+        <v>107.7650274924351</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378618</v>
+        <v>246.965254037862</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.139307860380569e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924882</v>
+        <v>124.1528061924881</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104005</v>
+        <v>286.8924326104006</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516671</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924882</v>
+        <v>124.1528061924878</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104005</v>
+        <v>286.8924326104009</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924882</v>
+        <v>124.1528061924881</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104005</v>
+        <v>286.8924326104006</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>179.1095622899354</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521645</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27427,7 +27427,7 @@
         <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27442,7 +27442,7 @@
         <v>85.99893476574613</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>107.7207091204818</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>77.16022509195128</v>
+        <v>21.96196974844253</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>90.42516245839141</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>143.9296961568199</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>94.37079714822846</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>19.48120559755631</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>27.38215501850061</v>
+        <v>27.3821550185008</v>
       </c>
       <c r="H5" t="n">
-        <v>46.98912895139756</v>
+        <v>334.0905432484386</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>190.2072075264479</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922221</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>197.0397157291234</v>
@@ -27670,13 +27670,13 @@
         <v>220.7944124161532</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3035935196382</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.5187078288111</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,19 +27746,19 @@
         <v>166.4582034896018</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0309045537394</v>
       </c>
       <c r="U6" t="n">
-        <v>180.6420020678727</v>
+        <v>158.8219669801072</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7551494384634</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>160.1304301278448</v>
@@ -27795,7 +27795,7 @@
         <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
-        <v>0.257526396727954</v>
+        <v>76.68600477300343</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463145</v>
+        <v>66.41450331463146</v>
       </c>
       <c r="R7" t="n">
         <v>166.6896206108343</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>91.32667106218815</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.8599054734598</v>
+        <v>239.8038512531362</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>53.97620323457207</v>
+        <v>134.1032781391345</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.139864314033165e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792953</v>
+        <v>0.5257423524792947</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328584</v>
+        <v>5.384258867328579</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395805</v>
+        <v>20.26868204395803</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873963</v>
+        <v>44.62172498873958</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918821</v>
+        <v>66.87639876918814</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887647</v>
+        <v>82.96608628887637</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684978013</v>
+        <v>92.31575684978003</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876194</v>
+        <v>93.80952230876183</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129593</v>
+        <v>88.58167179129585</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446333</v>
+        <v>75.60240746446324</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629854</v>
+        <v>56.77425946629848</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892756</v>
+        <v>33.02516304892752</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712195</v>
+        <v>11.98035385712194</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978116</v>
+        <v>2.301437147978114</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834362</v>
+        <v>0.04205938819834357</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.281296957743993</v>
+        <v>0.2812969577439927</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685406</v>
+        <v>2.716736407685403</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782216</v>
+        <v>9.685004904782206</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387436</v>
+        <v>26.57639371387433</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272189</v>
+        <v>45.42328988272184</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945778</v>
+        <v>61.07721882945771</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767751</v>
+        <v>71.27423354767743</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658352</v>
+        <v>73.16065042658343</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709819</v>
+        <v>66.92770204709812</v>
       </c>
       <c r="P6" t="n">
-        <v>53.7153813432367</v>
+        <v>53.71538134323664</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430339</v>
+        <v>35.90730990430335</v>
       </c>
       <c r="R6" t="n">
-        <v>17.4650865518595</v>
+        <v>17.46508655185948</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614236006</v>
+        <v>5.224967614236001</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082147</v>
+        <v>1.133824141082145</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894692</v>
+        <v>0.0185063787989469</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953234</v>
+        <v>0.2358299199953231</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594786</v>
+        <v>2.096742379594783</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768454</v>
+        <v>7.092048866768447</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366936</v>
+        <v>16.67317534366935</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672939</v>
+        <v>27.39914888672936</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821382</v>
+        <v>35.06147737821377</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344874</v>
+        <v>36.96741191344869</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437528</v>
+        <v>36.08840948437525</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715718</v>
+        <v>33.33348723715714</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925256</v>
+        <v>28.52255686925253</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706295</v>
+        <v>19.74753993706292</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633517</v>
+        <v>10.60377076633516</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009407</v>
+        <v>4.109872333009402</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889109</v>
+        <v>1.007636930889108</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156311</v>
+        <v>0.01286345018156309</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>243.0338665604673</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N3" t="n">
-        <v>261.9696201058931</v>
+        <v>79.07191193225303</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833254</v>
@@ -34796,7 +34796,7 @@
         <v>193.94078250313</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412711</v>
+        <v>32.67243563412706</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953724</v>
+        <v>170.9319602953723</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693397</v>
+        <v>264.8608858693395</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153399</v>
+        <v>311.4830571153398</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241552</v>
+        <v>301.7433831241551</v>
       </c>
       <c r="O5" t="n">
         <v>239.2836416323545</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806764</v>
+        <v>166.1681198806763</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175373</v>
+        <v>46.78356025175368</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.8298023876165</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>96.73702051245105</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530428</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>164.9388739159471</v>
+        <v>387.394840144155</v>
       </c>
       <c r="N6" t="n">
-        <v>387.3948401441551</v>
+        <v>387.394840144155</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793833</v>
+        <v>318.1937768793832</v>
       </c>
       <c r="P6" t="n">
         <v>238.2037425688436</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.002823554131</v>
+        <v>106.0028235541309</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846533</v>
+        <v>5.129657060846505</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852995</v>
+        <v>62.65150263852991</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528932</v>
+        <v>76.55128887528929</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360388</v>
+        <v>80.22058186360384</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119685</v>
+        <v>57.91861515119682</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414605</v>
+        <v>25.80111613414601</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110537</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>437.8187244348073</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35729,19 +35729,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35966,16 +35966,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221117</v>
@@ -36677,19 +36677,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36920,13 +36920,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>236.5687745713064</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37148,13 +37148,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>274.915516674262</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37163,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37385,10 +37385,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,10 +37397,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37555,7 +37555,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37634,10 +37634,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>255.450348864514</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3281588.206167293</v>
+        <v>3363267.41290068</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261947</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8357594.327736059</v>
+        <v>8357573.144457986</v>
       </c>
     </row>
     <row r="11">
@@ -671,16 +673,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.6284460753918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>262.0103915579872</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>148.8017515848429</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>36.91923284444344</v>
       </c>
     </row>
     <row r="4">
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W4" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>260.3122444724545</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="G5" t="n">
-        <v>387.394840144155</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>145.4424509729837</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922222</v>
+        <v>120.1819171385216</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663287</v>
+        <v>80.69052336281879</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078365</v>
+        <v>84.45800155129677</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>67.1009087220687</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>135.0544564386135</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.7551494384634</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322663</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>65.10033615318882</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>134.382984326849</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>334.8396426569624</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>84.11892151122098</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>152.4197201974565</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.54020587130172</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>198.6529319504859</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>7.101909464868018</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2005,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>82.35845141792591</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941266</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.7418731970295</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>130.9576264872274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896907</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>9.47796323858489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>76.6161967382711</v>
+        <v>114.3307653357159</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789691</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>152.0093639951873</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.562624396424889</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>89.2013558215816</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3244,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.61524188852272</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3442,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>215.2988434523158</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>16.95157201523261</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>118.9955446623092</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>151.5597833602934</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>187.9010500435436</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.91466611915821</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.50720837107768</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="C2" t="n">
-        <v>47.50720837107768</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="D2" t="n">
-        <v>47.50720837107768</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="E2" t="n">
-        <v>47.50720837107768</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
-        <v>40.56170762187421</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800413</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800413</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800413</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573683</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098028</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369336</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806668</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>843.9662583320081</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>843.9662583320081</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="U2" t="n">
-        <v>843.9662583320081</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="V2" t="n">
-        <v>578.0652139363849</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="W2" t="n">
-        <v>312.1641695407617</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="X2" t="n">
-        <v>47.50720837107768</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.50720837107768</v>
+        <v>251.4724366382861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>394.8528667175163</v>
+        <v>630.6692537831356</v>
       </c>
       <c r="C3" t="n">
-        <v>394.8528667175163</v>
+        <v>456.2162245020086</v>
       </c>
       <c r="D3" t="n">
-        <v>394.8528667175163</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="E3" t="n">
-        <v>394.8528667175163</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F3" t="n">
-        <v>248.3183087444013</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G3" t="n">
-        <v>109.6374838154158</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613335</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>21.05936271613335</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>261.6628906109959</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M3" t="n">
-        <v>522.2725042231461</v>
+        <v>439.1939517187799</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360766</v>
+        <v>712.5889002841118</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285688</v>
+        <v>979.0857138673956</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480438</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>804.5982230673944</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>602.6131654824703</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U3" t="n">
-        <v>602.6131654824703</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="V3" t="n">
-        <v>602.6131654824703</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="W3" t="n">
-        <v>602.6131654824703</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="X3" t="n">
-        <v>602.6131654824703</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="Y3" t="n">
-        <v>394.8528667175163</v>
+        <v>798.8845908032035</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613335</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692.1866683815535</v>
+        <v>943.2498839460357</v>
       </c>
       <c r="C5" t="n">
-        <v>692.1866683815535</v>
+        <v>943.2498839460357</v>
       </c>
       <c r="D5" t="n">
-        <v>429.2450072982662</v>
+        <v>943.2498839460357</v>
       </c>
       <c r="E5" t="n">
-        <v>429.2450072982662</v>
+        <v>567.4522770304576</v>
       </c>
       <c r="F5" t="n">
-        <v>422.2995065490627</v>
+        <v>191.6546701148795</v>
       </c>
       <c r="G5" t="n">
-        <v>30.9915872115324</v>
+        <v>176.6747371070913</v>
       </c>
       <c r="H5" t="n">
-        <v>30.9915872115324</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I5" t="n">
-        <v>30.9915872115324</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J5" t="n">
-        <v>63.3372984893183</v>
+        <v>57.64391735380411</v>
       </c>
       <c r="K5" t="n">
-        <v>232.559939181737</v>
+        <v>220.1747338456881</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923832</v>
+        <v>474.0852112039979</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365696</v>
+        <v>773.2160860494164</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029483</v>
+        <v>1062.555213635722</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245514</v>
+        <v>1290.582309293129</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927384</v>
+        <v>1447.523776935881</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.57936057662</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R5" t="n">
-        <v>1431.555163715789</v>
+        <v>1366.762647488192</v>
       </c>
       <c r="S5" t="n">
-        <v>1431.555163715789</v>
+        <v>1166.509506436748</v>
       </c>
       <c r="T5" t="n">
-        <v>1431.555163715789</v>
+        <v>943.2498839460357</v>
       </c>
       <c r="U5" t="n">
-        <v>1431.555163715789</v>
+        <v>943.2498839460357</v>
       </c>
       <c r="V5" t="n">
-        <v>1431.555163715789</v>
+        <v>943.2498839460357</v>
       </c>
       <c r="W5" t="n">
-        <v>1078.786508445675</v>
+        <v>943.2498839460357</v>
       </c>
       <c r="X5" t="n">
-        <v>1078.786508445675</v>
+        <v>943.2498839460357</v>
       </c>
       <c r="Y5" t="n">
-        <v>1078.786508445675</v>
+        <v>943.2498839460357</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740.6678350381709</v>
+        <v>285.7217789032032</v>
       </c>
       <c r="C6" t="n">
-        <v>566.2148057570439</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="D6" t="n">
-        <v>417.2803960957927</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="E6" t="n">
-        <v>258.0429410903372</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="F6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5083831172222</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>30.9915872115324</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J6" t="n">
-        <v>30.9915872115324</v>
+        <v>52.67537262782855</v>
       </c>
       <c r="K6" t="n">
-        <v>126.7612375188589</v>
+        <v>195.4097745063016</v>
       </c>
       <c r="L6" t="n">
-        <v>126.7612375188589</v>
+        <v>479.7277836524378</v>
       </c>
       <c r="M6" t="n">
-        <v>510.2821292615723</v>
+        <v>479.7277836524378</v>
       </c>
       <c r="N6" t="n">
-        <v>893.8030210042857</v>
+        <v>848.0470181903959</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.814860114875</v>
+        <v>1156.361899562715</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.63656525803</v>
+        <v>1386.808705706685</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.57936057662</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.05133269704</v>
+        <v>1402.847410707612</v>
       </c>
       <c r="S6" t="n">
-        <v>1466.05133269704</v>
+        <v>1234.17437210748</v>
       </c>
       <c r="T6" t="n">
-        <v>1466.05133269704</v>
+        <v>1234.17437210748</v>
       </c>
       <c r="U6" t="n">
-        <v>1398.272637018183</v>
+        <v>1005.967557761044</v>
       </c>
       <c r="V6" t="n">
-        <v>1163.12052878644</v>
+        <v>1005.967557761044</v>
       </c>
       <c r="W6" t="n">
-        <v>908.8831720582389</v>
+        <v>869.548914893758</v>
       </c>
       <c r="X6" t="n">
-        <v>908.8831720582389</v>
+        <v>661.6974146882252</v>
       </c>
       <c r="Y6" t="n">
-        <v>908.8831720582389</v>
+        <v>453.9371159232713</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.4412331089702</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="C7" t="n">
-        <v>200.4412331089702</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="D7" t="n">
-        <v>200.4412331089702</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="E7" t="n">
-        <v>200.4412331089702</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4412331089702</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="G7" t="n">
-        <v>30.9915872115324</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="H7" t="n">
-        <v>30.9915872115324</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="I7" t="n">
-        <v>30.9915872115324</v>
+        <v>1202.718087661535</v>
       </c>
       <c r="J7" t="n">
-        <v>30.9915872115324</v>
+        <v>1202.718087661535</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177044</v>
+        <v>1205.054818952703</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391504</v>
+        <v>1263.571465099934</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004514</v>
+        <v>1335.65818691749</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454192</v>
+        <v>1411.465464033824</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451041</v>
+        <v>1465.469458699616</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179086</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179086</v>
+        <v>1419.057056352127</v>
       </c>
       <c r="R7" t="n">
-        <v>336.1816213179086</v>
+        <v>1419.057056352127</v>
       </c>
       <c r="S7" t="n">
-        <v>336.1816213179086</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="T7" t="n">
-        <v>336.1816213179086</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="U7" t="n">
-        <v>336.1816213179086</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="V7" t="n">
-        <v>336.1816213179086</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="W7" t="n">
-        <v>336.1816213179086</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="X7" t="n">
-        <v>200.4412331089702</v>
+        <v>1353.299141045875</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.4412331089702</v>
+        <v>1353.299141045875</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C8" t="n">
-        <v>1865.381229508782</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="D8" t="n">
-        <v>1507.115530902032</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1121.327278303787</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>710.3413735141798</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>292.3775654123667</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4905,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942404</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W10" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.6060931634762</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,43 +5032,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.2185435662825</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1419.582729273759</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1219.662719189311</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1219.662719189311</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1219.662719189311</v>
       </c>
       <c r="V13" t="n">
-        <v>809.2080944642998</v>
+        <v>1219.662719189311</v>
       </c>
       <c r="W13" t="n">
-        <v>809.2080944642998</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="X13" t="n">
-        <v>581.2185435662825</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y13" t="n">
-        <v>581.2185435662825</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="14">
@@ -5267,40 +5269,40 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>272.5660590645743</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>272.5660590645743</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>272.5660590645743</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>272.5660590645743</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>454.2145238948141</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,10 +5536,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
@@ -5601,16 +5603,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.8254548799445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>330.8254548799445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5700,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169051</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799445</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>330.8254548799445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.8254548799445</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.1480540508779</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C22" t="n">
-        <v>822.1480540508779</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1270.930184092425</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1270.930184092425</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.930184092425</v>
+        <v>831.8553110296066</v>
       </c>
       <c r="V22" t="n">
-        <v>1270.930184092425</v>
+        <v>831.8553110296066</v>
       </c>
       <c r="W22" t="n">
-        <v>1270.930184092425</v>
+        <v>542.438140992646</v>
       </c>
       <c r="X22" t="n">
-        <v>1042.940633194408</v>
+        <v>542.438140992646</v>
       </c>
       <c r="Y22" t="n">
-        <v>822.1480540508779</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5987,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6014,25 +6016,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>3326.06821056133</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>3633.388343841292</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>3963.250971505325</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>4242.791036724022</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>426.1449830812443</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>257.2088001533374</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>257.2088001533374</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>257.2088001533374</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>257.2088001533374</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>646.9375622247744</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>426.1449830812443</v>
       </c>
     </row>
     <row r="26">
@@ -6215,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365139</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>604.4337416462789</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="C28" t="n">
-        <v>604.4337416462789</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="D28" t="n">
-        <v>454.3171022339432</v>
+        <v>360.6158065939071</v>
       </c>
       <c r="E28" t="n">
-        <v>454.3171022339432</v>
+        <v>212.702713011514</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3171022339432</v>
+        <v>212.702713011514</v>
       </c>
       <c r="G28" t="n">
-        <v>286.1417805537637</v>
+        <v>212.702713011514</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0822064765186</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>786.0822064765186</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y28" t="n">
-        <v>786.0822064765186</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6506,7 +6508,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6542,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>4596.234657459767</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>4596.234657459767</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>4596.234657459767</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>4306.817487422806</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>4306.817487422806</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>4086.024908279276</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216476</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880508</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.8359039819272</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>3979.084326005001</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>3828.967686592666</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>3828.967686592666</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3828.967686592666</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3660.792364912486</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U34" t="n">
-        <v>874.927113122792</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V34" t="n">
-        <v>620.2426249169051</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="W34" t="n">
-        <v>330.8254548799445</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="X34" t="n">
-        <v>102.8359039819272</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.8359039819272</v>
+        <v>4148.020508932908</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632138</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D37" t="n">
-        <v>822.148054050878</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684849</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1081.522681228691</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>1081.522681228691</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.499100520942</v>
+        <v>1081.522681228691</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.499100520942</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7169,49 +7171,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,22 +7250,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>709.4934589365139</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
         <v>2016.139981183168</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1370.718367104341</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>1081.589728317899</v>
       </c>
       <c r="V40" t="n">
-        <v>554.8095831774258</v>
+        <v>1081.589728317899</v>
       </c>
       <c r="W40" t="n">
-        <v>265.3924131404652</v>
+        <v>792.1725582809389</v>
       </c>
       <c r="X40" t="n">
-        <v>265.3924131404652</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y40" t="n">
-        <v>265.3924131404652</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="41">
@@ -7406,49 +7408,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>2080.218333389736</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>825.112461128548</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1234.750476856805</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1234.750476856805</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>1006.760925958788</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>1006.760925958788</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,49 +7651,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>391.6040140015124</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3691419079764</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>973.0255547109413</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C46" t="n">
-        <v>804.0893717830344</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D46" t="n">
-        <v>653.9727323706986</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883055</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G46" t="n">
         <v>359.1696912903951</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7837,19 +7839,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>708.9934778008143</v>
       </c>
       <c r="W46" t="n">
-        <v>1187.92115703528</v>
+        <v>708.9934778008143</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.92115703528</v>
+        <v>708.9934778008143</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.674019541181</v>
+        <v>708.9934778008143</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093849</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>197.5393732613982</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>246.3983453517936</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.6630807868109</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2612329527924</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>189.1551696040882</v>
+        <v>241.1853944571848</v>
       </c>
       <c r="L6" t="n">
-        <v>77.47716095041648</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184959</v>
+        <v>78.06372243715123</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5759018009048</v>
+        <v>437.6152809470459</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="N12" t="n">
-        <v>104.6241510367944</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9249,19 +9251,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>5.100663089360012</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>295.3773510571265</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,10 +10433,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,25 +10670,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>176.7176547498449</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>286.5092576192344</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>104.8749102765748</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>31.42414653249108</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>53.48471137334215</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>138.3191385580632</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>66.25702160028645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.17893678657371</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>155.2797259113499</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>157.0156052247927</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>72.29763162926503</v>
+        <v>34.58306303182026</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>69.53819706320192</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6841967022029</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>59.71247254595453</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.2167382934146</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>36.83879987151224</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>204.5959890431566</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.1420986615188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>100.5778599635346</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>64.23659328028435</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>185.6699872329366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>751934.3394644599</v>
+        <v>751982.1716747776</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>752502.1420619978</v>
+        <v>752430.36595407</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="G2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409905</v>
-      </c>
       <c r="H2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="L2" t="n">
         <v>684300.8545409907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409903</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409901</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="P2" t="n">
         <v>684300.8545409903</v>
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749499</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300985</v>
+        <v>106137.151770384</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133503</v>
+        <v>316711.9424252107</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124997</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414821</v>
+        <v>24677.24609313421</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179896</v>
+        <v>76496.15793817129</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304469.3167485494</v>
+        <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>265031.2936389867</v>
+        <v>269877.2512870323</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="H4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="J4" t="n">
-        <v>29303.54555230232</v>
-      </c>
       <c r="K4" t="n">
+        <v>29303.54555230235</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29303.54555230238</v>
+      </c>
+      <c r="M4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230225</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26457,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683336</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267171</v>
+        <v>58810.42201485715</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,28 +26487,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253413.3696009153</v>
+        <v>240795.1707525071</v>
       </c>
       <c r="C6" t="n">
-        <v>255106.8975394913</v>
+        <v>283586.7235589747</v>
       </c>
       <c r="D6" t="n">
-        <v>160439.7958326619</v>
+        <v>144349.7508208014</v>
       </c>
       <c r="E6" t="n">
-        <v>37849.94656307509</v>
+        <v>37849.94656307546</v>
       </c>
       <c r="F6" t="n">
         <v>563009.9830399714</v>
       </c>
       <c r="G6" t="n">
-        <v>563009.9830399717</v>
+        <v>563009.9830399714</v>
       </c>
       <c r="H6" t="n">
-        <v>563009.9830399718</v>
+        <v>563009.9830399714</v>
       </c>
       <c r="I6" t="n">
         <v>563009.9830399712</v>
       </c>
       <c r="J6" t="n">
-        <v>494134.2843087213</v>
+        <v>490755.2881688322</v>
       </c>
       <c r="K6" t="n">
-        <v>531057.0236158229</v>
+        <v>538332.7369468368</v>
       </c>
       <c r="L6" t="n">
-        <v>490400.0903781725</v>
+        <v>486513.8251018004</v>
       </c>
       <c r="M6" t="n">
         <v>428208.967806134</v>
       </c>
       <c r="N6" t="n">
-        <v>563009.9830399718</v>
+        <v>563009.9830399717</v>
       </c>
       <c r="O6" t="n">
-        <v>563009.9830399712</v>
+        <v>563009.9830399717</v>
       </c>
       <c r="P6" t="n">
         <v>563009.9830399713</v>
@@ -26710,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792247</v>
+        <v>117.5602045593892</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>387.394840144155</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924351</v>
+        <v>82.53894384026384</v>
       </c>
       <c r="D3" t="n">
-        <v>246.965254037862</v>
+        <v>260.1834596576974</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924881</v>
+        <v>95.8831171440668</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104006</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516671</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924878</v>
+        <v>95.8831171440668</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104009</v>
+        <v>302.2476419081331</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924881</v>
+        <v>95.8831171440668</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104006</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0.8510996945768738</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>64.51022451846802</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574613</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>107.7207091204818</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.96196974844253</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>168.7634629328609</v>
       </c>
     </row>
     <row r="4">
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022107</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598916</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W4" t="n">
-        <v>126.6879292296158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>94.37079714822846</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225839525</v>
       </c>
       <c r="F5" t="n">
+        <v>34.83641489528918</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>27.3821550185008</v>
-      </c>
       <c r="H5" t="n">
-        <v>334.0905432484386</v>
+        <v>189.1922970927579</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264479</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291234</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161532</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3035935196382</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,19 +27700,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896018</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537394</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>158.8219669801072</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>116.6405267223061</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.1304301278448</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>148.3584260604898</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300343</v>
+        <v>78.37121764358476</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463146</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>166.6896206108343</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
-        <v>219.9067257039628</v>
+        <v>155.2217879142695</v>
       </c>
       <c r="T7" t="n">
-        <v>226.9379524973924</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3061659063093</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>91.32667106218815</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>19.84339896372052</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>239.8038512531362</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>134.1032781391345</v>
+        <v>52.02592219651751</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29524,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4.820566934132988e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94748062488878</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035002</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760444</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324508</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841738</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544932</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679592</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246559</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750314</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688226</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523079</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210613</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605603</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523959</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166741</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471433</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988742</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N4" t="n">
-        <v>6.35056181584803</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150903</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131949</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S4" t="n">
-        <v>0.723223846075011</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792947</v>
+        <v>0.4726038374246798</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328579</v>
+        <v>4.840054050025503</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395803</v>
+        <v>18.22005944231498</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873958</v>
+        <v>40.11165994662295</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918814</v>
+        <v>60.11698038480966</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887637</v>
+        <v>74.58043007439521</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684978003</v>
+        <v>82.98509856819636</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876183</v>
+        <v>84.32788422127923</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129585</v>
+        <v>79.62842981288757</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446324</v>
+        <v>67.96102257646578</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629848</v>
+        <v>51.03589764869442</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892752</v>
+        <v>29.68720080262807</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712194</v>
+        <v>10.7694599453149</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978114</v>
+        <v>2.068823298326537</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834357</v>
+        <v>0.03780830699397437</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439927</v>
+        <v>0.2528653456560447</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685403</v>
+        <v>2.442146890941274</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782206</v>
+        <v>8.706109488596276</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387433</v>
+        <v>23.89022987182833</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272184</v>
+        <v>40.83220803078332</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945771</v>
+        <v>54.90394270483549</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767743</v>
+        <v>64.07031148486709</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658343</v>
+        <v>65.76606198270962</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709812</v>
+        <v>60.16309827106778</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323664</v>
+        <v>48.28619043496874</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430335</v>
+        <v>32.27803956128739</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185948</v>
+        <v>15.69983260134636</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614236001</v>
+        <v>4.696862889707669</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082145</v>
+        <v>1.019224792359232</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0185063787989469</v>
+        <v>0.01663587800368715</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953231</v>
+        <v>0.2119938115005378</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594783</v>
+        <v>1.884817705886601</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768447</v>
+        <v>6.37523207676163</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366935</v>
+        <v>14.98796247308802</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672936</v>
+        <v>24.62982646342612</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821377</v>
+        <v>31.51769812072542</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344869</v>
+        <v>33.2309935609434</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437525</v>
+        <v>32.44083480898687</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715714</v>
+        <v>29.96436164736694</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925253</v>
+        <v>25.63968789275595</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706292</v>
+        <v>17.75159088846776</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633516</v>
+        <v>9.532012651651453</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009402</v>
+        <v>3.694473969513917</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889108</v>
+        <v>0.9057917400477523</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156309</v>
+        <v>0.01156329880912026</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604673</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516669</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>79.07191193225303</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833254</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>193.94078250313</v>
+        <v>126.808425193966</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025437</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412706</v>
+        <v>28.16237059201043</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953723</v>
+        <v>164.1725419109939</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693395</v>
+        <v>256.4752296548584</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153398</v>
+        <v>302.1523988337561</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241551</v>
+        <v>292.2617450366725</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323545</v>
+        <v>230.3303996539462</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806763</v>
+        <v>158.5267349926789</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175368</v>
+        <v>41.04519843414962</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557047</v>
       </c>
       <c r="K6" t="n">
-        <v>96.73702051245105</v>
+        <v>144.1761635136091</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>387.394840144155</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>387.394840144155</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793832</v>
+        <v>311.4291731033529</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688436</v>
+        <v>232.7745516605757</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.0028235541309</v>
+        <v>102.373553211115</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846505</v>
+        <v>2.360334637543264</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852991</v>
+        <v>59.10772338104156</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528929</v>
+        <v>72.81487052278399</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360384</v>
+        <v>76.57300718821546</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119682</v>
+        <v>54.54948956140662</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414601</v>
+        <v>22.91824715764944</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>724.9245949685507</v>
       </c>
       <c r="N12" t="n">
-        <v>437.8187244348073</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35726,7 +35728,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>255.4503488645141</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,13 +35737,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35969,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>315.5250401398262</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131508</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>425.9753597058693</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>619.7038310172472</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>255.450348864514</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
